--- a/assets/Price_List.xlsx
+++ b/assets/Price_List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="826"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Original Material" sheetId="23" r:id="rId1"/>
@@ -1338,8 +1338,8 @@
   </sheetPr>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" outlineLevelCol="1"/>
